--- a/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-10T09:00:47+00:00</t>
+    <t>2025-07-16T16:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T16:20:26+00:00</t>
+    <t>2025-07-16T17:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T17:08:50+00:00</t>
+    <t>2025-07-16T17:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T17:24:09+00:00</t>
+    <t>2025-07-17T10:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T10:01:33+00:00</t>
+    <t>2025-07-17T12:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T12:09:09+00:00</t>
+    <t>2025-07-17T12:24:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/cp-add-change-log/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T12:24:47+00:00</t>
+    <t>2025-07-17T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
